--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,202 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddhant.raghuwanshi\Documents\UiPath\Hash Code generation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <x:si>
-    <x:t>HashMethod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cc54f6b5a095dfc6cb6eb17dcbf8cc15a4f0ca7a154a2724b7226797c9d7457c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>adler32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07c4024c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crc32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44ab5e0d</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crc32b</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f381d6f6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval128,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6b7b813e06b46d4b2f28185545618062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval160,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300c5967c3bbd8b1ad580c89ba38c18b2a507fd2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval192,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>f48675616959b4e7f8399a0945c3762a54d0ae890273b211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval224,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fe7a818f332516d2d25b8307c02544e76ca5522e0c38b47663886548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval256,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ed6fc4ecbec7b3ea54d54a0108eaa5b2bddfae599844371987b21b26016ad325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval128,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31ba43a330bab68b3a974cfda488deca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval160,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01883977856b4d1dae50002a53251715ed5ea42a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval192,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>b38c8dd023bc368183ce25912bec56dca48aab8b3faacdf3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval224,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8db87d9bbf8ebb73f8a961d7a5e66395f3651f6ebffae52b5269cc11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval256,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3c4e527a4448d75bb19ab5b7a3ad274a5cba0542400a70050e01535cb35a088e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval128,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ccce06ddd6e8ded1c7453cdbd512b333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval160,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64757d595cf621e89b66df489967c3e5433c5868</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval192,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9161a96775052e1696c555dd0be0db90381defcf2fa959b3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval224,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>c225a1f138be856a2a5d8c9ab2630f4a57d0b82c91c3177bdb0253e9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haval256,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1a7cf5c88e84d2492077758389404e45acd142ffe87535d7204a7dabbd33273e</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>HashMethod</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>gost</t>
+  </si>
+  <si>
+    <t>cc54f6b5a095dfc6cb6eb17dcbf8cc15a4f0ca7a154a2724b7226797c9d7457c</t>
+  </si>
+  <si>
+    <t>adler32</t>
+  </si>
+  <si>
+    <t>07c4024c</t>
+  </si>
+  <si>
+    <t>crc32</t>
+  </si>
+  <si>
+    <t>44ab5e0d</t>
+  </si>
+  <si>
+    <t>crc32b</t>
+  </si>
+  <si>
+    <t>f381d6f6</t>
+  </si>
+  <si>
+    <t>haval128,3</t>
+  </si>
+  <si>
+    <t>6b7b813e06b46d4b2f28185545618062</t>
+  </si>
+  <si>
+    <t>haval160,3</t>
+  </si>
+  <si>
+    <t>300c5967c3bbd8b1ad580c89ba38c18b2a507fd2</t>
+  </si>
+  <si>
+    <t>haval192,3</t>
+  </si>
+  <si>
+    <t>f48675616959b4e7f8399a0945c3762a54d0ae890273b211</t>
+  </si>
+  <si>
+    <t>haval224,3</t>
+  </si>
+  <si>
+    <t>fe7a818f332516d2d25b8307c02544e76ca5522e0c38b47663886548</t>
+  </si>
+  <si>
+    <t>haval256,3</t>
+  </si>
+  <si>
+    <t>ed6fc4ecbec7b3ea54d54a0108eaa5b2bddfae599844371987b21b26016ad325</t>
+  </si>
+  <si>
+    <t>haval128,4</t>
+  </si>
+  <si>
+    <t>31ba43a330bab68b3a974cfda488deca</t>
+  </si>
+  <si>
+    <t>haval160,4</t>
+  </si>
+  <si>
+    <t>01883977856b4d1dae50002a53251715ed5ea42a</t>
+  </si>
+  <si>
+    <t>haval192,4</t>
+  </si>
+  <si>
+    <t>b38c8dd023bc368183ce25912bec56dca48aab8b3faacdf3</t>
+  </si>
+  <si>
+    <t>haval224,4</t>
+  </si>
+  <si>
+    <t>8db87d9bbf8ebb73f8a961d7a5e66395f3651f6ebffae52b5269cc11</t>
+  </si>
+  <si>
+    <t>haval256,4</t>
+  </si>
+  <si>
+    <t>3c4e527a4448d75bb19ab5b7a3ad274a5cba0542400a70050e01535cb35a088e</t>
+  </si>
+  <si>
+    <t>haval128,5</t>
+  </si>
+  <si>
+    <t>ccce06ddd6e8ded1c7453cdbd512b333</t>
+  </si>
+  <si>
+    <t>haval160,5</t>
+  </si>
+  <si>
+    <t>64757d595cf621e89b66df489967c3e5433c5868</t>
+  </si>
+  <si>
+    <t>haval192,5</t>
+  </si>
+  <si>
+    <t>9161a96775052e1696c555dd0be0db90381defcf2fa959b3</t>
+  </si>
+  <si>
+    <t>haval224,5</t>
+  </si>
+  <si>
+    <t>c225a1f138be856a2a5d8c9ab2630f4a57d0b82c91c3177bdb0253e9</t>
+  </si>
+  <si>
+    <t>haval256,5</t>
+  </si>
+  <si>
+    <t>1a7cf5c88e84d2492077758389404e45acd142ffe87535d7204a7dabbd33273e</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>86d8b5cfb901eaa725d6704e9d43ff2f</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -479,184 +481,187 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B20"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,15 +896,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Owner xmlns="5756a67b-a28b-4cf5-88e6-2b4468392c6e">
@@ -920,14 +916,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3546B76A-B9E2-4287-A1EA-F10932D8BAB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3546B76A-B9E2-4287-A1EA-F10932D8BAB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5756a67b-a28b-4cf5-88e6-2b4468392c6e"/>
+    <ds:schemaRef ds:uri="2ace790c-9bff-4836-93d2-c906c881a70a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{597F7914-6EEE-4DD7-95D4-654EFC025ED0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85D5699-EBE6-4BCF-8B5D-7A698D97386E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5756a67b-a28b-4cf5-88e6-2b4468392c6e"/>
+    <ds:schemaRef ds:uri="2ace790c-9bff-4836-93d2-c906c881a70a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85D5699-EBE6-4BCF-8B5D-7A698D97386E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{597F7914-6EEE-4DD7-95D4-654EFC025ED0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>